--- a/api/接口测试用例模版.xlsx
+++ b/api/接口测试用例模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lan\Desktop\week\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E59D3C0-E60F-4808-9B34-307A1E66458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D09EEA-D721-45BD-9344-3622DDEAF0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>项目名称</t>
   </si>
@@ -67,131 +67,511 @@
     <t>会员模块</t>
   </si>
   <si>
+    <t>API_Login_002</t>
+  </si>
+  <si>
+    <t>API_Login_003</t>
+  </si>
+  <si>
+    <t>API_Login_004</t>
+  </si>
+  <si>
+    <t>API_Login_005</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Register_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Register_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.yesapi.net/api/App/User/Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom
+3.password=202cb962ac59075b964b07152d234b70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"app_key": "6CF084D9775F94D57C8A0D698DAD5DB0",
+"username": "tom",
+"password": "202cb962ac59075b964b07152d234b70"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 200,
+    "data": {
+        "err_code": 0,
+        "err_msg": "",
+        "uuid": "CC3E1E025793A4BDB9D433F4981F39E3"
+    },
+    "msg": "",
+    "_t": 1755829609
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"app_key": "6CF084D9775F94D57C8A0D698DAD5DB0",
+"username": "tom1",
+"password": "202cb962ac59075b964b07152d234b70"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Register_003</t>
+  </si>
+  <si>
+    <t>API_Register_004</t>
+  </si>
+  <si>
+    <t>API_Register_005</t>
+  </si>
+  <si>
+    <t>用户名长度大于50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度超过32位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度小于32位</t>
+  </si>
+  <si>
+    <t>{
+    "ret": 200,
+    "data": {
+        "err_code": 0,
+        "err_msg": "",
+        "uuid": "TYUVE025793A4BDB9D433F4981F39E3"
+    },
+    "msg": "",
+    "_t": 1755895261
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"tom111111111111111111111111111111111111111111111111",
+    "password":"202cb962ac59075b964b07152d234b70"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：username.len应该小于等于50, 但现在username.len = 51",
+    "_t": 1755830464
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"tom",
+    "password":"202cb962ac59075b964b07152d234b7011"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：password.len应该小于等于32, 但现在password.len = 34",
+    "_t": 1755830493
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"tom",
+    "password":"202cb962ac59075b964b07152d234b"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：password.len应该大于或等于32, 但现在password.len = 30",
+    "_t": 1755830502
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"tom",
+    "password":"202cb962ac59075b964b07152d234b70"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 200,
+    "data": {
+        "err_code": 1,
+        "err_msg": "用户已注册，不能重复注册",
+        "uuid": ""
+    },
+    "msg": "",
+    "_t": 1755830574
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom111111111111111111111111111111111111111111111111
+3.password=202cb962ac59075b964b07152d234b70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom1
+3.password=202cb962ac59075b964b07152d234b70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom
+3.password=202cb962ac59075b964b07152d234b7011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom
+3.password=202cb962ac59075b964b07152d234b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册GET方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册POST方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=200
+err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=200
+err_code=1</t>
+  </si>
+  <si>
+    <t>ret=400
+msg=客户端非法请求：username.len应该小于等于50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=400
+msg=客户端非法请求：password.len应该小于等于32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=400
+msg=客户端非法请求：password.len应该大于或等于32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=200
+err_code=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=200
+err_code=1
+err_msg=用户已注册，不能重复注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Register_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>API_Login_001</t>
-  </si>
-  <si>
-    <t>API_Login_002</t>
-  </si>
-  <si>
-    <t>API_Login_003</t>
-  </si>
-  <si>
-    <t>API_Login_004</t>
-  </si>
-  <si>
-    <t>API_Login_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录Get方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录Post方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名未填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名和密码未填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度大于32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度小于32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.yesapi.net/api/App/User/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom34343
+3.password=202cb962ac59075b964b07152d234b70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=
+3.password=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>API_Login_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>API_Login_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>API_Login_008</t>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hn1.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>http://hn2.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>http://hn3.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>http://hn4.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hn5.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>http://hn6.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>http://hn7.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>http://hn8.api.okayapi.com/?s=App.User.Login</t>
-  </si>
-  <si>
-    <t>1.app_key=C7630186182EF2A5462FEF
-2.username=test_user1
-3.password=e10adc3949ba59abbe56e057f20f883e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"app_key": "C7630186182EF2A5462FEF",
-"username": "test_user1",
-"password": "e10adc3949ba59abbe56e057f20f883e"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"ret": 200,
- "data": {
- "err_code": 0,
- "err_msg": "",
- "uuid": "8E4C366FB1185463C4BC5A466D097881",
- "token": "C8699F63270536578D32C3C05EBAEFFB716E69F22F0832ABAF3B7162F43FA7C3",
- "role": "user"
- },
- "msg": "欢迎访问接口 App.User.Login"
- }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.app_key=C7630186182EF2A5462FEF
-2.username=test_user1
-3.password=e10adc3949ba59abbe56e057f21111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"app_key": "C7630186182EF2A5462FEF",
-"username": "test_user1",
-"password": "e10adc3949ba59abbe56e057f21111111"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"ret": 401,
- "data": {
- "err_code": 2,
- "err_msg": "",
- },
- "msg": "欢迎访问接口 App.User.Login"
- }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Login_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码未填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom
+3.password=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"tom34343",
+    "password":"202cb962ac59075b964b07152d234b70"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"",
+    "password":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"tom",
+    "password":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=
+3.password=202cb962ac59075b964b07152d234b70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"",
+    "password":"202cb962ac59075b964b07152d234b70"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.app_key=6CF084D9775F94D57C8A0D698DAD5DB0
+2.username=tom11111111111111111111111111111111
+3.password=202cb962ac59075b964b07152d234b70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key":"6CF084D9775F94D57C8A0D698DAD5DB0",
+    "username":"tom11111111111111111111111111111111",
+    "password":"202cb962ac59075b964b07152d234b70"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 200,
+    "data": {
+        "err_code": 0,
+        "err_msg": "",
+        "uuid": "237EB90E761E2172347346600DDDD370",
+        "token": "372F083BAB513BE2E9DF529A28B50893C2D87601FC4365FB06C4C56DEDE2883D",
+        "role": "user"
+    },
+    "msg": "",
+    "_t": 1755853626
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 200,
+    "data": {
+        "err_code": 0,
+        "err_msg": "",
+        "uuid": "237EB90E761E2172347346600DDDD370",
+        "token": "25702A6C1104C5FC938D665E1880AC35ACF2AF70BF3FBDA6B6FFEE3295D67E28",
+        "role": "user"
+    },
+    "msg": "",
+    "_t": 1755853648
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 200,
+    "data": {
+        "err_code": 1,
+        "err_msg": "登录失败，账号不存在",
+        "uuid": "",
+        "token": "",
+        "role": ""
+    },
+    "msg": "",
+    "_t": 1755853663
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：username.len应该大于或等于1, 但现在username.len = 0",
+    "_t": 1755853683
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：password.len应该大于或等于32, 但现在password.len = 0",
+    "_t": 1755853695
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：username.len应该大于或等于1, 但现在username.len = 0",
+    "_t": 1755853706
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 200,
+    "data": {
+        "err_code": 1,
+        "err_msg": "登录失败，账号不存在",
+        "uuid": "",
+        "token": "",
+        "role": ""
+    },
+    "msg": "",
+    "_t": 1755853716
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：password.len应该小于等于32, 但现在password.len = 33",
+    "_t": 1755853727
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ret": 400,
+    "data": {},
+    "msg": "客户端非法请求：password.len应该大于或等于32, 但现在password.len = 31",
+    "_t": 1755853737
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret=200
+err_code=1
+err_msg=登录失败，账号不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,37 +646,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,38 +662,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,22 +1160,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="2" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="44" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="58.625" customWidth="1"/>
-    <col min="10" max="10" width="53.5" customWidth="1"/>
-    <col min="11" max="11" width="76.5" customWidth="1"/>
-    <col min="12" max="13" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="62.75" customWidth="1"/>
+    <col min="10" max="10" width="72.125" customWidth="1"/>
+    <col min="11" max="11" width="80.5" customWidth="1"/>
+    <col min="12" max="12" width="46.5" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -878,317 +1223,589 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="162" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="108" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="12" t="s">
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+    <row r="4" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    <row r="5" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+    <row r="6" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+    <row r="7" spans="1:13" ht="135" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:13" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+    <row r="9" spans="1:13" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+    <row r="10" spans="1:13" ht="162" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+    <row r="11" spans="1:13" ht="81" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+    <row r="12" spans="1:13" ht="81" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+    <row r="13" spans="1:13" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+    <row r="14" spans="1:13" ht="162" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+    <row r="15" spans="1:13" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+    <row r="16" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1206,13 +1823,30 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{3EACC208-5EE0-4719-97DE-EC067F89C55A}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{870D87D0-6570-4F79-96E0-C8A24E84CAD1}"/>
+    <hyperlink ref="G4:G7" r:id="rId3" display="http://api.yesapi.net/api/App/User/Register" xr:uid="{0A071FC0-F1E8-47A7-BBA0-26AA9DF25579}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{43069F4D-2644-44E4-963B-368F416A8087}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{DDCC24F8-80B3-4ACF-A827-EFD289372605}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>